--- a/groupevents_dataprocess/logit_regression_results.xlsx
+++ b/groupevents_dataprocess/logit_regression_results.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="941" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="519" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>uid</t>
   </si>
@@ -80,6 +81,12 @@
   <si>
     <t>test_acc_lasso</t>
   </si>
+  <si>
+    <t>item_only</t>
+  </si>
+  <si>
+    <t>item+user</t>
+  </si>
 </sst>
 </file>
 
@@ -119,9 +126,8 @@
       <sz val="15"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -243,7 +249,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -273,7 +279,6 @@
               <a:solidFill>
                 <a:srgbClr val="3366ff"/>
               </a:solidFill>
-              <a:custDash/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -443,11 +448,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="28585746"/>
-        <c:axId val="7036940"/>
+        <c:axId val="96584832"/>
+        <c:axId val="64090508"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28585746"/>
+        <c:axId val="96584832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7036940"/>
+        <c:crossAx val="64090508"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -470,7 +475,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7036940"/>
+        <c:axId val="64090508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,7 +493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28585746"/>
+        <c:crossAx val="96584832"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -520,15 +525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:colOff>390600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>807840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:colOff>834480</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>227160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -536,8 +541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3400200" y="1772280"/>
-        <a:ext cx="5505120" cy="2057400"/>
+        <a:off x="3429000" y="1231920"/>
+        <a:ext cx="5508000" cy="1373760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -555,16 +560,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="N1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="L1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="R22" activeCellId="0" pane="topLeft" sqref="R22"/>
-      <selection activeCell="N1" activeCellId="0" pane="bottomLeft" sqref="N1"/>
+      <selection activeCell="Q22" activeCellId="0" pane="topLeft" sqref="Q22"/>
+      <selection activeCell="L1" activeCellId="0" pane="bottomLeft" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="10.5058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.5058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.6117647058824"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.5058823529412"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.1686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.5058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="1">
@@ -1634,6 +1645,16 @@
       </c>
       <c r="T20" s="0" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="21">
+      <c r="Q21" s="0" t="n">
+        <f aca="false">SUM(Q3:Q20)/18</f>
+        <v>0.695555555555556</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">SUM(T3:T20)/18</f>
+        <v>0.705</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1682,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="1">
@@ -1954,4 +1975,420 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
+      <selection activeCell="M27" activeCellId="0" pane="topLeft" sqref="M27"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.43137254901961"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.8" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>